--- a/biology/Botanique/Euryops_chrysanthemoides/Euryops_chrysanthemoides.xlsx
+++ b/biology/Botanique/Euryops_chrysanthemoides/Euryops_chrysanthemoides.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Euryops chrysanthemoides ou Euryops à fleurs de chrysanthème[1] est une espèce de plante à fleurs de la famille des Asteraceae, originaire d'Afrique du Sud.
-Il est cultivé comme plante ornementale en Europe, au Japon et en Amérique[2].
-Synonyme : Gamolepis chrysanthemoides DC. est le premier nom scientifique (basionyme) donné à la plante par de Candolle en 1837. Par la suite, l'espèce a été déplacée dans le genre Euryops sur la base de son nombre de chromosomes[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Euryops chrysanthemoides ou Euryops à fleurs de chrysanthème est une espèce de plante à fleurs de la famille des Asteraceae, originaire d'Afrique du Sud.
+Il est cultivé comme plante ornementale en Europe, au Japon et en Amérique.
+Synonyme : Gamolepis chrysanthemoides DC. est le premier nom scientifique (basionyme) donné à la plante par de Candolle en 1837. Par la suite, l'espèce a été déplacée dans le genre Euryops sur la base de son nombre de chromosomes.
 </t>
         </is>
       </c>
@@ -513,7 +525,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom de genre Euryops dérive du grec eurys « grand » et ops « œil », évoquant le capitule. Le qualificatf spécifique chrysanthemoides signifie « ressemblant au chrysanthème ».
 </t>
@@ -544,13 +558,15 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Euryops chrysanthemoides est un arbrisseau compact, au feuillage persistant, de 0,50 à 2 m de haut[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Euryops chrysanthemoides est un arbrisseau compact, au feuillage persistant, de 0,50 à 2 m de haut.
 Le pied comporte plusieurs tiges érigées, se ramifiant à l'extrémité en plusieurs rameaux portant de nombreuses feuilles, assez proches les unes des autres.
-La feuille d'un vert brillant est pennatilobée à pennatipartite, formée de segments profondément indentés, de 3-10 cm de long sur 1-3 cm de large[4]. Le feuillage est persistant.
-Les capitules solitaires d'un jaune brillant, de 3-4 cm de diamètre[1], comportent à la périphérie jusqu'à une trentaine de fleurs ligulées et un centre de fleurs tubulées.
-En France, la floraison s'étale de la fin de l'été à l'automne ou l'hiver. En Afrique du Sud, la plante fleurit de mars à septembre[2].
+La feuille d'un vert brillant est pennatilobée à pennatipartite, formée de segments profondément indentés, de 3-10 cm de long sur 1-3 cm de large. Le feuillage est persistant.
+Les capitules solitaires d'un jaune brillant, de 3-4 cm de diamètre, comportent à la périphérie jusqu'à une trentaine de fleurs ligulées et un centre de fleurs tubulées.
+En France, la floraison s'étale de la fin de l'été à l'automne ou l'hiver. En Afrique du Sud, la plante fleurit de mars à septembre.
 De nombreuses petits akènes noirs, veinés, sont produits après la floraison.
 </t>
         </is>
@@ -580,7 +596,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Euryops chrysanthemoides croît dans le Cap-Oriental dans le KwaZulu-Natal, Mpumalanga et Swaziland.
 On le trouve en général en bordure de forêts et dans les ravins.
@@ -612,7 +630,9 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet arbrisseau apprécie les emplacements ensoleillés et tolère jusqu'à −6 °C.
 Il possède une croissance assez rapide les premières années.
